--- a/TAREAS.xlsx
+++ b/TAREAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/f_perezh_edu_uah_es/Documents/0_UNI/0_programas/PROG/PL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E0E18BB-7FB5-4C54-A41B-951ACADA2EBF}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12608368-579A-4387-8DDC-51D8B211B2A5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -250,6 +250,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DCD8C0-6A6D-4007-8403-BEB57AFC6059}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,8 +648,8 @@
       <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>18</v>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="6">
         <v>45431</v>
@@ -687,8 +691,8 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>18</v>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="6">
         <v>45431</v>

--- a/TAREAS.xlsx
+++ b/TAREAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/f_perezh_edu_uah_es/Documents/0_UNI/0_programas/PROG/PL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12608368-579A-4387-8DDC-51D8B211B2A5}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3AC9853-7103-412A-BB8A-65E0B34CE7F4}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Tareas</t>
   </si>
@@ -145,6 +145,18 @@
   <si>
     <t>Requiere:
 Terminar lógica</t>
+  </si>
+  <si>
+    <t>Mejorar la presentación de la UI (opcional)</t>
+  </si>
+  <si>
+    <t>Refactorizar</t>
+  </si>
+  <si>
+    <t>Usuarios, iniciar sesión y registro</t>
+  </si>
+  <si>
+    <t>Reseñas?</t>
   </si>
 </sst>
 </file>
@@ -575,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DCD8C0-6A6D-4007-8403-BEB57AFC6059}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +754,9 @@
       <c r="B19" t="s">
         <v>30</v>
       </c>
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
@@ -750,6 +765,9 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,6 +776,9 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
@@ -766,6 +787,9 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
@@ -774,6 +798,9 @@
       <c r="B23" t="s">
         <v>31</v>
       </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="3" t="s">
         <v>32</v>
       </c>
@@ -781,6 +808,9 @@
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>34</v>

--- a/TAREAS.xlsx
+++ b/TAREAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/f_perezh_edu_uah_es/Documents/0_UNI/0_programas/PROG/PL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3AC9853-7103-412A-BB8A-65E0B34CE7F4}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D0C205-1D29-4DE8-B94D-E9BCA12505C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Tareas</t>
   </si>
@@ -101,21 +101,10 @@
     <t>Buscar inmuebles</t>
   </si>
   <si>
-    <t>Falta casi toda la lógica y la GUI</t>
-  </si>
-  <si>
     <t>Reservar inmuebles</t>
   </si>
   <si>
     <t>Reseñar inmuebles</t>
-  </si>
-  <si>
-    <t>Requiere:
-Reservar inmuebles</t>
-  </si>
-  <si>
-    <t>Requiere:
-Lógica de las reservas</t>
   </si>
   <si>
     <t>Consultar reservas</t>
@@ -157,6 +146,9 @@
   </si>
   <si>
     <t>Reseñas?</t>
+  </si>
+  <si>
+    <t>GUI hecha</t>
   </si>
 </sst>
 </file>
@@ -229,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -240,6 +232,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -587,19 +582,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DCD8C0-6A6D-4007-8403-BEB57AFC6059}">
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -616,12 +611,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -632,7 +627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -640,20 +635,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -667,7 +662,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -675,28 +670,28 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -710,39 +705,39 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="E15" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="E16" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -750,70 +745,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/TAREAS.xlsx
+++ b/TAREAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/f_perezh_edu_uah_es/Documents/0_UNI/0_programas/PROG/PL2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87D0C205-1D29-4DE8-B94D-E9BCA12505C0}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A074B994-7550-44C1-85B7-CF1E4121527E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Tareas</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>GUI y lógica hecha, falta conectarlas</t>
-  </si>
-  <si>
-    <t>Lógica hecha, falta GUI y conectarlas</t>
   </si>
   <si>
     <t>Menú principal</t>
@@ -221,10 +218,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -583,18 +579,18 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.44140625" customWidth="1"/>
-    <col min="5" max="5" width="37.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -611,12 +607,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -627,28 +623,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -658,40 +654,52 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>45431</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="5">
+        <v>45437</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -701,114 +709,114 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>45431</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="E16" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>24</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" t="s">
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+      <c r="E24" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TAREAS.xlsx
+++ b/TAREAS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universidaddealcala-my.sharepoint.com/personal/f_perezh_edu_uah_es/Documents/0_UNI/0_programas/PROG/PL2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tizia\Desktop\Universidad\Programación\PL2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{48B31374-707B-4DC9-BFB8-3DA46CE15A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A074B994-7550-44C1-85B7-CF1E4121527E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A5028-D497-4951-8435-6909C82C5827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C9341A-C18B-4DB8-8CFA-EE1E21D67F7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -231,6 +231,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -253,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -579,18 +578,18 @@
   <dimension ref="B2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -607,12 +606,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -623,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -631,20 +630,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -658,7 +657,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -672,7 +671,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -686,7 +685,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -694,12 +693,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>13</v>
       </c>
@@ -713,7 +712,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -721,7 +720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>20</v>
       </c>
@@ -729,7 +728,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>21</v>
       </c>
@@ -737,7 +736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -745,7 +744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>18</v>
       </c>
@@ -753,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -764,7 +763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -775,7 +774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -786,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -797,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -808,7 +807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>29</v>
       </c>
